--- a/4.Understand/1.进度追踪.xlsx
+++ b/4.Understand/1.进度追踪.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -80,6 +80,48 @@
   </si>
   <si>
     <t>整篇文章重新总结</t>
+  </si>
+  <si>
+    <t>问题1 复述</t>
+  </si>
+  <si>
+    <t>WIN_20241212_14_21_32_Pro</t>
+  </si>
+  <si>
+    <t>问题2 复述</t>
+  </si>
+  <si>
+    <t>WIN_20241212_14_44_23_Pro</t>
+  </si>
+  <si>
+    <t>问题2 重新复述</t>
+  </si>
+  <si>
+    <t>WIN_20241212_14_54_55_Pro</t>
+  </si>
+  <si>
+    <t>问题3 复述</t>
+  </si>
+  <si>
+    <t>WIN_20241212_15_05_14_Pro</t>
+  </si>
+  <si>
+    <t>问题4 跟读</t>
+  </si>
+  <si>
+    <t>WIN_20241212_15_16_49_Pro</t>
+  </si>
+  <si>
+    <t>问题5 跟读</t>
+  </si>
+  <si>
+    <t>WIN_20241212_15_26_06_Pro</t>
+  </si>
+  <si>
+    <t>问题6 跟读</t>
+  </si>
+  <si>
+    <t>WIN_20241212_15_35_17_Pro</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1160,6 +1202,86 @@
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>45638</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1410</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1">
+        <v>1439</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1">
+        <v>1445</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1">
+        <v>1458</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1">
+        <v>1516</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1">
+        <v>1526</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="1">
+        <v>1537</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/4.Understand/1.进度追踪.xlsx
+++ b/4.Understand/1.进度追踪.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>日期</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>WIN_20241212_15_35_17_Pro</t>
+  </si>
+  <si>
+    <t>英语半结构化：答案准备</t>
+  </si>
+  <si>
+    <t>问题准备</t>
+  </si>
+  <si>
+    <t>自我介绍准备</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1282,6 +1291,30 @@
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1">
+        <v>1621</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1">
+        <v>1622</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
